--- a/biology/Médecine/1769_en_santé_et_médecine/1769_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1769_en_santé_et_médecine/1769_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1769_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1769_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1769 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1769_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1769_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Lazzaro Spallanzani en publiant Azione del cuore nei vasi démontre qu'il existe une relation constante entre la vitesse du sang et le diamètre des vaisseaux sanguins[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Lazzaro Spallanzani en publiant Azione del cuore nei vasi démontre qu'il existe une relation constante entre la vitesse du sang et le diamètre des vaisseaux sanguins.</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1769_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1769_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,10 +555,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>23 février : Nicolas-François Rougnon publie lettre sur les causes de la mort de Monsieur Charles[2] ou lettre de Monsieur Rougnon à Monsieur Lorry[3] où il décrit les symptômes de l’angine de poitrine : « Une douleur gravative dans la région du cœur ». La paternité de la découverte est habituellement attribuée à Heberden. L'angor pectoris ou angina pectoris est parfois appelée « maladie d'Heberden-Rougnon »[4].
-21 juillet : William Heberden donne la première description clinique de l'angine de poitrine[5].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>23 février : Nicolas-François Rougnon publie lettre sur les causes de la mort de Monsieur Charles ou lettre de Monsieur Rougnon à Monsieur Lorry où il décrit les symptômes de l’angine de poitrine : « Une douleur gravative dans la région du cœur ». La paternité de la découverte est habituellement attribuée à Heberden. L'angor pectoris ou angina pectoris est parfois appelée « maladie d'Heberden-Rougnon ».
+21 juillet : William Heberden donne la première description clinique de l'angine de poitrine.</t>
         </is>
       </c>
     </row>
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1769_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1769_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,9 +588,11 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>23 août : Georges Cuvier (mort en 1832), anatomiste français[6].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>23 août : Georges Cuvier (mort en 1832), anatomiste français.</t>
         </is>
       </c>
     </row>
@@ -584,7 +602,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1769_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1769_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -602,9 +620,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>29 janvier : John Martyn (né en 1699), botaniste anglais. Bien que n’ayant obtenu aucun titre de docteur, il pratique la médecine de 1727 à 1752[7].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>29 janvier : John Martyn (né en 1699), botaniste anglais. Bien que n’ayant obtenu aucun titre de docteur, il pratique la médecine de 1727 à 1752.</t>
         </is>
       </c>
     </row>
